--- a/FmgProjectEtg12/testData/GiftCertificateCodesPaypal_CC.xlsx
+++ b/FmgProjectEtg12/testData/GiftCertificateCodesPaypal_CC.xlsx
@@ -21,7 +21,7 @@
     <t>codes for  paypal and cc</t>
   </si>
   <si>
-    <t>CPMRMOKGLIFOZSMS</t>
+    <t>PZJLRMIJJKTKIMIJ</t>
   </si>
   <si>
     <t xml:space="preserve">FSRWLFVKIYHJRGMI </t>
@@ -56,10 +56,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -81,26 +81,49 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -109,14 +132,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -124,14 +140,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -161,14 +169,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -192,6 +192,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
@@ -199,13 +207,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -222,9 +223,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -246,187 +246,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,9 +442,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,50 +531,48 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -584,94 +584,94 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1004,7 +1004,7 @@
   <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.537037037037" defaultRowHeight="13.2"/>
